--- a/Mifos Automation Excels/Client/776-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-DL-MD-TR-1-Late Repayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/776-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-DL-MD-TR-1-Late Repayment-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>click</t>
   </si>
@@ -31,9 +31,6 @@
     <t>disbursementon</t>
   </si>
   <si>
-    <t>submittedon</t>
-  </si>
-  <si>
     <t>approve</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Tranche Loan</t>
   </si>
   <si>
-    <t>submitbutton</t>
-  </si>
-  <si>
     <t>loantrancheclick</t>
   </si>
   <si>
@@ -91,49 +85,37 @@
     <t>moratoriumoninterestpayment</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Paid Date</t>
-  </si>
-  <si>
-    <t>Principal Due</t>
-  </si>
-  <si>
-    <t>Balance of Loan</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Fees</t>
-  </si>
-  <si>
-    <t>Penalties</t>
-  </si>
-  <si>
-    <t>Due</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>In Advance</t>
-  </si>
-  <si>
-    <t>Late</t>
-  </si>
-  <si>
-    <t>Outstanding</t>
-  </si>
-  <si>
-    <t>776-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-DL-MD-TR-1-Late Repayment</t>
+    <t>RBI-EI-DB-DL-Y-NON-RNI-CTRFD-DL-MD-Y-1-Late Repayment</t>
+  </si>
+  <si>
+    <t>clickonnewloan</t>
+  </si>
+  <si>
+    <t>submitteddateon</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalance</t>
+  </si>
+  <si>
+    <t>submitloan</t>
+  </si>
+  <si>
+    <t>clickonapprove</t>
+  </si>
+  <si>
+    <t>submitapprove</t>
+  </si>
+  <si>
+    <t>clickondisburse</t>
+  </si>
+  <si>
+    <t>submitdisburse</t>
+  </si>
+  <si>
+    <t>approveloan</t>
+  </si>
+  <si>
+    <t>disburseloan</t>
   </si>
 </sst>
 </file>
@@ -201,6 +183,9 @@
     <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -216,17 +201,12 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -828,7 +808,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -838,13 +818,13 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3">
         <v>42005</v>
@@ -859,32 +839,32 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
+      <c r="A5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="14">
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>42005</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
+      <c r="A8" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>10000</v>
@@ -892,23 +872,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3">
         <v>42005</v>
@@ -916,18 +896,34 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
         <v>42005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +937,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -952,102 +948,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>9</v>
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>10000</v>
       </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
         <v>10000</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>1581.47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>685.07</v>
       </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
         <v>685.07</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>193.97</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="A4" s="10">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="A5" s="10">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1058,600 +1054,711 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2" s="12">
         <v>42005</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="13">
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
         <v>10000</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11">
-        <v>0</v>
-      </c>
-      <c r="L2" s="11">
-        <v>0</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>31</v>
       </c>
       <c r="C3" s="12">
         <v>42036</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11">
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
         <v>785.8</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="11">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H3" s="11">
-        <v>101.92</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
-        <v>887.72</v>
-      </c>
-      <c r="L3" s="11">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0</v>
-      </c>
-      <c r="O3" s="11">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>785.8</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>785.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>28</v>
       </c>
       <c r="C4" s="12">
         <v>42064</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
         <v>795.67</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="11">
         <v>8418.5300000000007</v>
       </c>
-      <c r="H4" s="11">
-        <v>92.05</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
-        <v>887.72</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
-        <v>0</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0</v>
-      </c>
-      <c r="O4" s="11">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="H4" s="10">
+        <v>193.97</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <v>989.64</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>989.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>31</v>
       </c>
       <c r="C5" s="12">
         <v>42095</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
         <v>785.8</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="11">
         <v>7632.73</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>101.92</v>
       </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
         <v>887.72</v>
       </c>
-      <c r="L5" s="11">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11">
-        <v>0</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0</v>
-      </c>
-      <c r="O5" s="11">
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>30</v>
       </c>
       <c r="C6" s="12">
         <v>42125</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
         <v>812.44</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <v>6820.29</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>75.28</v>
       </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
         <v>887.72</v>
       </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
-        <v>0</v>
-      </c>
-      <c r="N6" s="11">
-        <v>0</v>
-      </c>
-      <c r="O6" s="11">
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>31</v>
       </c>
       <c r="C7" s="12">
         <v>42156</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11">
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
         <v>818.21</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="11">
         <v>6002.08</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>69.510000000000005</v>
       </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
         <v>887.72</v>
       </c>
-      <c r="L7" s="11">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
-      <c r="O7" s="11">
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>30</v>
       </c>
       <c r="C8" s="12">
         <v>42186</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11">
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
         <v>828.52</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="11">
         <v>5173.5600000000004</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>59.2</v>
       </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
         <v>887.72</v>
       </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
-        <v>0</v>
-      </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
-      <c r="O8" s="11">
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>31</v>
       </c>
       <c r="C9" s="12">
         <v>42217</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11">
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
         <v>834.99</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="11">
         <v>4338.57</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>52.73</v>
       </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
         <v>887.72</v>
       </c>
-      <c r="L9" s="11">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-      <c r="O9" s="11">
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
         <v>31</v>
       </c>
       <c r="C10" s="12">
         <v>42248</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11">
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
         <v>843.5</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="11">
         <v>3495.07</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>44.22</v>
       </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11">
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
         <v>887.72</v>
       </c>
-      <c r="L10" s="11">
-        <v>0</v>
-      </c>
-      <c r="M10" s="11">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>30</v>
       </c>
       <c r="C11" s="12">
         <v>42278</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11">
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
         <v>853.25</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="11">
         <v>2641.82</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>34.47</v>
       </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
         <v>887.72</v>
       </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="11">
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>31</v>
       </c>
       <c r="C12" s="12">
         <v>42309</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
         <v>860.8</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="11">
         <v>1781.02</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>26.92</v>
       </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
         <v>887.72</v>
       </c>
-      <c r="L12" s="11">
-        <v>0</v>
-      </c>
-      <c r="M12" s="11">
-        <v>0</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-      <c r="O12" s="11">
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>30</v>
       </c>
       <c r="C13" s="12">
         <v>42339</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11">
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
         <v>870.15</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>910.87</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>17.57</v>
       </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
         <v>887.72</v>
       </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-      <c r="O13" s="11">
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>31</v>
       </c>
       <c r="C14" s="12">
         <v>42370</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11">
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
         <v>910.87</v>
       </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
         <v>9.2799999999999994</v>
       </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11">
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
         <v>920.15</v>
       </c>
-      <c r="L14" s="11">
-        <v>0</v>
-      </c>
-      <c r="M14" s="11">
-        <v>0</v>
-      </c>
-      <c r="N14" s="11">
-        <v>0</v>
-      </c>
-      <c r="O14" s="11">
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
         <v>920.15</v>
       </c>
     </row>
@@ -1681,28 +1788,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3">
         <v>41974</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
+      <c r="A4" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>1000</v>
@@ -1710,23 +1817,23 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>41974</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
+      <c r="A7" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>1000</v>
@@ -1734,23 +1841,23 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>41974</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
+      <c r="A10" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>1000</v>
@@ -1761,12 +1868,12 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
         <v>41974</v>
@@ -1774,20 +1881,20 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>10</v>
+      <c r="A15" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="2">
         <v>1000</v>
@@ -1795,7 +1902,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -1803,15 +1910,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="7">
+        <v>20</v>
+      </c>
+      <c r="B17" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -1819,23 +1926,23 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3">
         <v>42095</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>13</v>
+      <c r="A23" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B23" s="2">
         <v>10000</v>

--- a/Mifos Automation Excels/Client/776-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-DL-MD-TR-1-Late Repayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/776-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-DL-MD-TR-1-Late Repayment-Newcreateloan.xlsx
@@ -85,9 +85,6 @@
     <t>moratoriumoninterestpayment</t>
   </si>
   <si>
-    <t>RBI-EI-DB-DL-Y-NON-RNI-CTRFD-DL-MD-Y-1-Late Repayment</t>
-  </si>
-  <si>
     <t>clickonnewloan</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>disburseloan</t>
+  </si>
+  <si>
+    <t>776-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-DL-MD-TR-1-Late Repayment</t>
   </si>
 </sst>
 </file>
@@ -176,14 +176,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -201,12 +198,21 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,7 +803,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -808,7 +814,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -818,13 +824,13 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3">
         <v>42005</v>
@@ -839,10 +845,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -863,7 +869,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2">
@@ -872,7 +878,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -880,7 +886,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -896,15 +902,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -920,10 +926,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -937,7 +943,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -948,102 +954,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>10000</v>
       </c>
-      <c r="B2" s="10">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
         <v>10000</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>1581.47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>685.07</v>
       </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
         <v>685.07</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>193.97</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="A4" s="9">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>0</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="A5" s="9">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1057,7 +1063,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1116,649 +1122,545 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14">
         <v>42005</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="15">
         <v>10000</v>
       </c>
-      <c r="H2" s="10">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0</v>
-      </c>
-      <c r="K2" s="10">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="13">
         <v>31</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="14">
         <v>42036</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13">
         <v>785.8</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="16">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0</v>
-      </c>
-      <c r="K3" s="10">
+      <c r="H3" s="13">
+        <v>101.92</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
+        <v>887.72</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0</v>
+      </c>
+      <c r="P3" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13">
+        <v>28</v>
+      </c>
+      <c r="C4" s="14">
+        <v>42064</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13">
+        <v>795.67</v>
+      </c>
+      <c r="G4" s="16">
+        <v>8418.5300000000007</v>
+      </c>
+      <c r="H4" s="13">
+        <v>92.05</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>887.72</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13">
+        <v>31</v>
+      </c>
+      <c r="C5" s="14">
+        <v>42095</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13">
         <v>785.8</v>
       </c>
-      <c r="L3" s="10">
-        <v>0</v>
-      </c>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
-      <c r="N3" s="10">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="10">
-        <v>785.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10">
-        <v>28</v>
-      </c>
-      <c r="C4" s="12">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>795.67</v>
-      </c>
-      <c r="G4" s="11">
-        <v>8418.5300000000007</v>
-      </c>
-      <c r="H4" s="10">
-        <v>193.97</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
-        <v>989.64</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="10">
-        <v>989.64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="G5" s="16">
+        <v>7632.73</v>
+      </c>
+      <c r="H5" s="13">
+        <v>101.92</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>887.72</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>30</v>
+      </c>
+      <c r="C6" s="14">
+        <v>42125</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13">
+        <v>812.44</v>
+      </c>
+      <c r="G6" s="16">
+        <v>6820.29</v>
+      </c>
+      <c r="H6" s="13">
+        <v>75.28</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13">
         <v>31</v>
       </c>
-      <c r="C5" s="12">
-        <v>42095</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>785.8</v>
-      </c>
-      <c r="G5" s="11">
-        <v>7632.73</v>
-      </c>
-      <c r="H5" s="10">
-        <v>101.92</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0</v>
-      </c>
-      <c r="K5" s="10">
-        <v>887.72</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="C7" s="14">
+        <v>42156</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13">
+        <v>818.21</v>
+      </c>
+      <c r="G7" s="16">
+        <v>6002.08</v>
+      </c>
+      <c r="H7" s="13">
+        <v>69.510000000000005</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>887.72</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13">
         <v>30</v>
       </c>
-      <c r="C6" s="12">
-        <v>42125</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>812.44</v>
-      </c>
-      <c r="G6" s="11">
-        <v>6820.29</v>
-      </c>
-      <c r="H6" s="10">
-        <v>75.28</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10">
-        <v>887.72</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0</v>
-      </c>
-      <c r="M6" s="10">
-        <v>0</v>
-      </c>
-      <c r="N6" s="10">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="C8" s="14">
+        <v>42186</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13">
+        <v>828.52</v>
+      </c>
+      <c r="G8" s="16">
+        <v>5173.5600000000004</v>
+      </c>
+      <c r="H8" s="13">
+        <v>59.2</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>887.72</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13">
         <v>31</v>
       </c>
-      <c r="C7" s="12">
-        <v>42156</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>818.21</v>
-      </c>
-      <c r="G7" s="11">
-        <v>6002.08</v>
-      </c>
-      <c r="H7" s="10">
-        <v>69.510000000000005</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>887.72</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="C9" s="14">
+        <v>42217</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13">
+        <v>834.99</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4338.57</v>
+      </c>
+      <c r="H9" s="13">
+        <v>52.73</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>887.72</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13">
+        <v>31</v>
+      </c>
+      <c r="C10" s="14">
+        <v>42248</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13">
+        <v>843.5</v>
+      </c>
+      <c r="G10" s="16">
+        <v>3495.07</v>
+      </c>
+      <c r="H10" s="13">
+        <v>44.22</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
+      <c r="P10" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13">
         <v>30</v>
       </c>
-      <c r="C8" s="12">
-        <v>42186</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>828.52</v>
-      </c>
-      <c r="G8" s="11">
-        <v>5173.5600000000004</v>
-      </c>
-      <c r="H8" s="10">
-        <v>59.2</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0</v>
-      </c>
-      <c r="K8" s="10">
-        <v>887.72</v>
-      </c>
-      <c r="L8" s="10">
-        <v>0</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
-      <c r="N8" s="10">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="C11" s="14">
+        <v>42278</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13">
+        <v>853.25</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2641.82</v>
+      </c>
+      <c r="H11" s="13">
+        <v>34.47</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13">
         <v>31</v>
       </c>
-      <c r="C9" s="12">
-        <v>42217</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>834.99</v>
-      </c>
-      <c r="G9" s="11">
-        <v>4338.57</v>
-      </c>
-      <c r="H9" s="10">
-        <v>52.73</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0</v>
-      </c>
-      <c r="K9" s="10">
-        <v>887.72</v>
-      </c>
-      <c r="L9" s="10">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="10">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10">
+      <c r="C12" s="14">
+        <v>42309</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13">
+        <v>860.8</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1781.02</v>
+      </c>
+      <c r="H12" s="13">
+        <v>26.92</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <v>887.72</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13">
+        <v>30</v>
+      </c>
+      <c r="C13" s="14">
+        <v>42339</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13">
+        <v>870.15</v>
+      </c>
+      <c r="G13" s="13">
+        <v>910.87</v>
+      </c>
+      <c r="H13" s="13">
+        <v>17.57</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13">
         <v>31</v>
       </c>
-      <c r="C10" s="12">
-        <v>42248</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>843.5</v>
-      </c>
-      <c r="G10" s="11">
-        <v>3495.07</v>
-      </c>
-      <c r="H10" s="10">
-        <v>44.22</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="10">
-        <v>887.72</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10">
-        <v>30</v>
-      </c>
-      <c r="C11" s="12">
-        <v>42278</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>853.25</v>
-      </c>
-      <c r="G11" s="11">
-        <v>2641.82</v>
-      </c>
-      <c r="H11" s="10">
-        <v>34.47</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0</v>
-      </c>
-      <c r="K11" s="10">
-        <v>887.72</v>
-      </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
-      <c r="N11" s="10">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10">
-        <v>31</v>
-      </c>
-      <c r="C12" s="12">
-        <v>42309</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>860.8</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1781.02</v>
-      </c>
-      <c r="H12" s="10">
-        <v>26.92</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0</v>
-      </c>
-      <c r="K12" s="10">
-        <v>887.72</v>
-      </c>
-      <c r="L12" s="10">
-        <v>0</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10">
-        <v>30</v>
-      </c>
-      <c r="C13" s="12">
-        <v>42339</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10">
-        <v>870.15</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="C14" s="14">
+        <v>42370</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13">
         <v>910.87</v>
       </c>
-      <c r="H13" s="10">
-        <v>17.57</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10">
-        <v>0</v>
-      </c>
-      <c r="K13" s="10">
-        <v>887.72</v>
-      </c>
-      <c r="L13" s="10">
-        <v>0</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10">
-        <v>31</v>
-      </c>
-      <c r="C14" s="12">
-        <v>42370</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
-        <v>910.87</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
         <v>9.2799999999999994</v>
       </c>
-      <c r="I14" s="10">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0</v>
-      </c>
-      <c r="K14" s="10">
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
         <v>920.15</v>
       </c>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13">
         <v>920.15</v>
       </c>
     </row>
@@ -1808,7 +1710,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2">
@@ -1832,7 +1734,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2">
@@ -1856,7 +1758,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2">
@@ -1893,7 +1795,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2">
@@ -1912,7 +1814,7 @@
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>12</v>
       </c>
     </row>
@@ -1941,7 +1843,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="2">

--- a/Mifos Automation Excels/Client/776-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-DL-MD-TR-1-Late Repayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/776-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-DL-MD-TR-1-Late Repayment-Newcreateloan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
@@ -121,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -224,6 +229,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -245,7 +253,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4097" name="Picture 1" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?"/>
+        <xdr:cNvPr id="4097" name="Picture 1" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -285,7 +299,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4098" name="Picture 2" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?"/>
+        <xdr:cNvPr id="4098" name="Picture 2" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -325,7 +345,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4099" name="Picture 3" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?"/>
+        <xdr:cNvPr id="4099" name="Picture 3" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -365,7 +391,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4100" name="Picture 4" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261769"/>
+        <xdr:cNvPr id="4100" name="Picture 4" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261769">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -405,7 +437,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4101" name="Picture 5" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261942"/>
+        <xdr:cNvPr id="4101" name="Picture 5" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261942">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -445,7 +483,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4102" name="Picture 6" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261946"/>
+        <xdr:cNvPr id="4102" name="Picture 6" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261946">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -485,7 +529,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4103" name="fixStatusImg" descr="http://partners.cmptch.com/images/1x1.gif"/>
+        <xdr:cNvPr id="4103" name="fixStatusImg" descr="http://partners.cmptch.com/images/1x1.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -556,7 +606,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,9 +639,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,6 +691,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1060,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1071,7 +1155,7 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1111,17 +1195,18 @@
       <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14">
@@ -1147,8 +1232,9 @@
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -1184,14 +1270,15 @@
       <c r="M3" s="13">
         <v>0</v>
       </c>
-      <c r="N3" s="13">
-        <v>0</v>
-      </c>
-      <c r="P3" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="13"/>
+      <c r="O3" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -1227,14 +1314,15 @@
       <c r="M4" s="13">
         <v>0</v>
       </c>
-      <c r="N4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="13"/>
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -1270,14 +1358,15 @@
       <c r="M5" s="13">
         <v>0</v>
       </c>
-      <c r="N5" s="13">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="13"/>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -1313,14 +1402,15 @@
       <c r="M6" s="13">
         <v>0</v>
       </c>
-      <c r="N6" s="13">
-        <v>0</v>
-      </c>
-      <c r="P6" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="13"/>
+      <c r="O6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -1356,14 +1446,15 @@
       <c r="M7" s="13">
         <v>0</v>
       </c>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-      <c r="P7" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="13"/>
+      <c r="O7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -1399,14 +1490,15 @@
       <c r="M8" s="13">
         <v>0</v>
       </c>
-      <c r="N8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="13"/>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -1442,14 +1534,15 @@
       <c r="M9" s="13">
         <v>0</v>
       </c>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
-      <c r="P9" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="13"/>
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -1485,14 +1578,15 @@
       <c r="M10" s="13">
         <v>0</v>
       </c>
-      <c r="N10" s="13">
-        <v>0</v>
-      </c>
-      <c r="P10" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="13"/>
+      <c r="O10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -1528,14 +1622,15 @@
       <c r="M11" s="13">
         <v>0</v>
       </c>
-      <c r="N11" s="13">
-        <v>0</v>
-      </c>
-      <c r="P11" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -1571,14 +1666,15 @@
       <c r="M12" s="13">
         <v>0</v>
       </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-      <c r="P12" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="13"/>
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -1614,14 +1710,15 @@
       <c r="M13" s="13">
         <v>0</v>
       </c>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="13"/>
+      <c r="O13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -1657,10 +1754,11 @@
       <c r="M14" s="13">
         <v>0</v>
       </c>
-      <c r="N14" s="13">
-        <v>0</v>
-      </c>
-      <c r="P14" s="13">
+      <c r="N14" s="13"/>
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
         <v>920.15</v>
       </c>
     </row>
